--- a/MISTDO.Web/wwwroot/templates/trainee.xlsx
+++ b/MISTDO.Web/wwwroot/templates/trainee.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EBD90F-94B6-4474-B9F1-8EB5EBBBC1C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Desktop\MISTDO.Web\MISTDO.Web\wwwroot\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -45,29 +49,53 @@
     <t>UserAddress</t>
   </si>
   <si>
-    <t>ife tayo</t>
-  </si>
-  <si>
     <t>james</t>
   </si>
   <si>
     <t>ife@james.com</t>
   </si>
   <si>
-    <t>ndjsjdhssdj</t>
-  </si>
-  <si>
-    <t>msdhsdhdsb</t>
-  </si>
-  <si>
-    <t>msdsmmbdsbm</t>
+    <t>james@ife.com</t>
+  </si>
+  <si>
+    <t>omotola</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>ife</t>
+  </si>
+  <si>
+    <t>lekki lagos</t>
+  </si>
+  <si>
+    <t>asaba delta</t>
+  </si>
+  <si>
+    <t>ikeja lagos</t>
+  </si>
+  <si>
+    <t>ugheli delta</t>
+  </si>
+  <si>
+    <t>dream spark logistics</t>
+  </si>
+  <si>
+    <t>delvin upstream consulting</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Qwerty419#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,16 +450,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,95 +476,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2">
+        <v>8138629754</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>9812328</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>9812328</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9812328</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{06BA0E5C-C836-41FA-B664-03111615751A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{23D10EAE-56E8-4432-BFCC-62147DBE756A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3BD2C2B3-8688-469C-8104-175E8AC5BE21}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MISTDO.Web/wwwroot/templates/trainee.xlsx
+++ b/MISTDO.Web/wwwroot/templates/trainee.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/MISTDO.Web/wwwroot/templates/trainee.xlsx
+++ b/MISTDO.Web/wwwroot/templates/trainee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Desktop\MISTDO.Web\MISTDO.Web\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,46 +49,25 @@
     <t>UserAddress</t>
   </si>
   <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>ife@james.com</t>
-  </si>
-  <si>
-    <t>james@ife.com</t>
-  </si>
-  <si>
-    <t>omotola</t>
-  </si>
-  <si>
-    <t>joy</t>
-  </si>
-  <si>
-    <t>ife</t>
-  </si>
-  <si>
     <t>lekki lagos</t>
   </si>
   <si>
-    <t>asaba delta</t>
-  </si>
-  <si>
     <t>ikeja lagos</t>
   </si>
   <si>
-    <t>ugheli delta</t>
-  </si>
-  <si>
-    <t>dream spark logistics</t>
-  </si>
-  <si>
-    <t>delvin upstream consulting</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Qwerty419#</t>
+    <t>Trevo Beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName </t>
+  </si>
+  <si>
+    <t>base@gmail.com</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>dane</t>
   </si>
 </sst>
 </file>
@@ -451,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -499,62 +478,33 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>8138629754</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>9812328</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/MISTDO.Web/wwwroot/templates/trainee.xlsx
+++ b/MISTDO.Web/wwwroot/templates/trainee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Videos\TubeVideMateMovie\Game Of Thrones\Game of Thrones  Season 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>PhoneNo</t>
-  </si>
-  <si>
     <t>CompanyName</t>
   </si>
   <si>
@@ -58,9 +49,6 @@
     <t>Trevo Beverages</t>
   </si>
   <si>
-    <t xml:space="preserve">UserName </t>
-  </si>
-  <si>
     <t>base@gmail.com</t>
   </si>
   <si>
@@ -68,6 +56,30 @@
   </si>
   <si>
     <t>dane</t>
+  </si>
+  <si>
+    <t>08138629754</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Ikeja</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -112,9 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,81 +443,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:H2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>8138629754</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/MISTDO.Web/wwwroot/templates/trainee.xlsx
+++ b/MISTDO.Web/wwwroot/templates/trainee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Videos\TubeVideMateMovie\Game Of Thrones\Game of Thrones  Season 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -49,15 +49,6 @@
     <t>Trevo Beverages</t>
   </si>
   <si>
-    <t>base@gmail.com</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>dane</t>
-  </si>
-  <si>
     <t>08138629754</t>
   </si>
   <si>
@@ -80,6 +71,21 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>ola</t>
+  </si>
+  <si>
+    <t>davidola@gmail.com</t>
+  </si>
+  <si>
+    <t>DateOfBirthDateOfBirth</t>
+  </si>
+  <si>
+    <t>21-07-1993</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,18 +466,18 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -483,24 +489,27 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -512,10 +521,13 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
